--- a/biology/Botanique/Daniellia_oliveri/Daniellia_oliveri.xlsx
+++ b/biology/Botanique/Daniellia_oliveri/Daniellia_oliveri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniellia oliveri est une espèce d'arbres tropicaux de la famille des Fabaceae et du genre Daniellia, présente en Afrique de l'Ouest et du Centre.
 C'est une plante mellifère appréciée des abeilles notamment pour sa bonne production de nectar.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est appelée « Santang » en wolof, « Sanan » en bambara et « kéa » en gbaya.
 </t>
